--- a/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.24705059887992</v>
+        <v>93.70792539692374</v>
       </c>
       <c r="D2" t="n">
-        <v>3.336628494607873</v>
+        <v>2.925109101121235</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.72558960485807</v>
+        <v>92.31881497657344</v>
       </c>
       <c r="D3" t="n">
-        <v>3.058325937729157</v>
+        <v>3.496145192541345</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.7586903993304</v>
+        <v>91.34586788097859</v>
       </c>
       <c r="D4" t="n">
-        <v>3.401491859759583</v>
+        <v>3.005901642911145</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.68921209116959</v>
+        <v>89.75795670413629</v>
       </c>
       <c r="D5" t="n">
-        <v>3.529335789290406</v>
+        <v>2.961170442261827</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.06437909529799</v>
+        <v>89.19185185512249</v>
       </c>
       <c r="D6" t="n">
-        <v>3.342542481946447</v>
+        <v>2.93884089139023</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.04978576058083</v>
+        <v>87.94053413871525</v>
       </c>
       <c r="D7" t="n">
-        <v>3.458766434123713</v>
+        <v>3.14466060664775</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.16287510270449</v>
+        <v>86.47054768125082</v>
       </c>
       <c r="D8" t="n">
-        <v>3.525097017697741</v>
+        <v>2.844604877096544</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.48888318882319</v>
+        <v>85.39345819909369</v>
       </c>
       <c r="D9" t="n">
-        <v>2.992157440689843</v>
+        <v>3.278735452449095</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.02970135706433</v>
+        <v>84.37847468087858</v>
       </c>
       <c r="D10" t="n">
-        <v>3.376464426780271</v>
+        <v>2.827495533396488</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.77759729443829</v>
+        <v>83.45196679173807</v>
       </c>
       <c r="D11" t="n">
-        <v>2.828982060559705</v>
+        <v>3.066677479284178</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.37661231363408</v>
+        <v>82.24337772522964</v>
       </c>
       <c r="D12" t="n">
-        <v>3.153513330687991</v>
+        <v>2.807251135966579</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.37776125513956</v>
+        <v>81.40950214779861</v>
       </c>
       <c r="D13" t="n">
-        <v>3.363295386332249</v>
+        <v>3.020291538200996</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.70612588358244</v>
+        <v>80.66170196609809</v>
       </c>
       <c r="D14" t="n">
-        <v>3.258002683158828</v>
+        <v>2.918910922827051</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.82033606831946</v>
+        <v>79.20788002738927</v>
       </c>
       <c r="D15" t="n">
-        <v>3.601826226589543</v>
+        <v>3.116536259770348</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.82015815865816</v>
+        <v>78.00168498667853</v>
       </c>
       <c r="D16" t="n">
-        <v>3.308935838708653</v>
+        <v>3.345670741843429</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.75869262151907</v>
+        <v>77.01311603961291</v>
       </c>
       <c r="D17" t="n">
-        <v>3.14383182707737</v>
+        <v>3.419599417213081</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.69514247758801</v>
+        <v>76.02207790473882</v>
       </c>
       <c r="D18" t="n">
-        <v>3.180377723649566</v>
+        <v>3.02695287111366</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.02662794352376</v>
+        <v>74.9029727516382</v>
       </c>
       <c r="D19" t="n">
-        <v>3.217049233722753</v>
+        <v>2.653758389807834</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.42755223020784</v>
+        <v>73.5183182232085</v>
       </c>
       <c r="D20" t="n">
-        <v>3.046021822779479</v>
+        <v>3.356229539656932</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.74003375771061</v>
+        <v>72.06719757717292</v>
       </c>
       <c r="D21" t="n">
-        <v>3.160566326293016</v>
+        <v>3.099168854320134</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.41188615698667</v>
+        <v>71.48160589885946</v>
       </c>
       <c r="D22" t="n">
-        <v>3.383554489707779</v>
+        <v>3.428218390160427</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.61828983996652</v>
+        <v>70.74164527319157</v>
       </c>
       <c r="D23" t="n">
-        <v>2.920404369817835</v>
+        <v>2.815885690948202</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.44287283080129</v>
+        <v>68.989968787802</v>
       </c>
       <c r="D24" t="n">
-        <v>2.837444637047147</v>
+        <v>2.728558662328024</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.23897614719641</v>
+        <v>68.54409799309238</v>
       </c>
       <c r="D25" t="n">
-        <v>3.139607625671241</v>
+        <v>3.381106748174514</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.96910675297332</v>
+        <v>67.66679527445309</v>
       </c>
       <c r="D26" t="n">
-        <v>2.779536501141284</v>
+        <v>3.025971439735053</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.4282290861197</v>
+        <v>66.48856511413716</v>
       </c>
       <c r="D27" t="n">
-        <v>2.809518049700256</v>
+        <v>2.966886254376811</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.22908754348737</v>
+        <v>64.94612250385404</v>
       </c>
       <c r="D28" t="n">
-        <v>3.004429897306263</v>
+        <v>3.044364841646801</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.51506065981332</v>
+        <v>64.28914278701778</v>
       </c>
       <c r="D29" t="n">
-        <v>3.316234513634416</v>
+        <v>3.040396379256548</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.22182381990527</v>
+        <v>63.06709829172046</v>
       </c>
       <c r="D30" t="n">
-        <v>3.230507906584727</v>
+        <v>3.184680599786925</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.58495998349814</v>
+        <v>61.44559384279513</v>
       </c>
       <c r="D31" t="n">
-        <v>2.646077451748028</v>
+        <v>3.12536647721748</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.83446435363187</v>
+        <v>61.25795283551701</v>
       </c>
       <c r="D32" t="n">
-        <v>3.34512828966272</v>
+        <v>2.952761531003562</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.29823545354807</v>
+        <v>59.21175452374624</v>
       </c>
       <c r="D33" t="n">
-        <v>3.334775378632136</v>
+        <v>3.185192696862678</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.61057732045791</v>
+        <v>58.4820093421441</v>
       </c>
       <c r="D34" t="n">
-        <v>2.826734054266133</v>
+        <v>2.883832952017241</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.56609031520554</v>
+        <v>58.05996239220002</v>
       </c>
       <c r="D35" t="n">
-        <v>2.855772966720329</v>
+        <v>2.955062521672347</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.05629845754139</v>
+        <v>56.55822672667291</v>
       </c>
       <c r="D36" t="n">
-        <v>3.377171512379652</v>
+        <v>2.78408690135911</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.40116622435025</v>
+        <v>55.0517098543035</v>
       </c>
       <c r="D37" t="n">
-        <v>2.98374077573331</v>
+        <v>3.234718363869379</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.935260647361</v>
+        <v>54.86015870044535</v>
       </c>
       <c r="D38" t="n">
-        <v>3.364609081235559</v>
+        <v>3.262595442039222</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.09152944450035</v>
+        <v>53.28177924548979</v>
       </c>
       <c r="D39" t="n">
-        <v>2.754160542908046</v>
+        <v>3.03328976964537</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.37350476337926</v>
+        <v>52.56282220281222</v>
       </c>
       <c r="D40" t="n">
-        <v>2.926851321992726</v>
+        <v>3.238597007575398</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.31901623422621</v>
+        <v>52.09192560195435</v>
       </c>
       <c r="D41" t="n">
-        <v>2.87763486975411</v>
+        <v>2.827941045585319</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.56584131057455</v>
+        <v>50.55063787833375</v>
       </c>
       <c r="D42" t="n">
-        <v>3.085129860674945</v>
+        <v>3.261029871446089</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.99267906713962</v>
+        <v>49.46655446213087</v>
       </c>
       <c r="D43" t="n">
-        <v>3.249401198405077</v>
+        <v>2.792493663272187</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.91178790948523</v>
+        <v>48.45007140461006</v>
       </c>
       <c r="D44" t="n">
-        <v>2.810567920878012</v>
+        <v>2.932684001163409</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.28952992719653</v>
+        <v>47.35830944372358</v>
       </c>
       <c r="D45" t="n">
-        <v>3.229751950861718</v>
+        <v>3.191648163667422</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.2919102208504</v>
+        <v>46.19054279997496</v>
       </c>
       <c r="D46" t="n">
-        <v>3.14107872082034</v>
+        <v>2.935137253629715</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.27858291275152</v>
+        <v>45.50493852608592</v>
       </c>
       <c r="D47" t="n">
-        <v>3.06147714620638</v>
+        <v>3.146965144358303</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.32861159353848</v>
+        <v>44.15125111074759</v>
       </c>
       <c r="D48" t="n">
-        <v>3.199913258337092</v>
+        <v>2.828721468536798</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.99853988317668</v>
+        <v>43.01441181324776</v>
       </c>
       <c r="D49" t="n">
-        <v>2.821956420773534</v>
+        <v>3.049075766542385</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.36539741350575</v>
+        <v>42.5177821901998</v>
       </c>
       <c r="D50" t="n">
-        <v>3.151919813382857</v>
+        <v>2.790055415517853</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.88337179333006</v>
+        <v>40.95465217497199</v>
       </c>
       <c r="D51" t="n">
-        <v>3.167723716110487</v>
+        <v>2.592105323957749</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.14168448404762</v>
+        <v>40.73091276946071</v>
       </c>
       <c r="D52" t="n">
-        <v>3.071403098615878</v>
+        <v>3.063861233250089</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.12370367485423</v>
+        <v>38.78975671493438</v>
       </c>
       <c r="D53" t="n">
-        <v>3.117421323621951</v>
+        <v>2.872350418547648</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.20139956744506</v>
+        <v>38.3750099279416</v>
       </c>
       <c r="D54" t="n">
-        <v>3.187836020845343</v>
+        <v>2.980255199503524</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.50305606803818</v>
+        <v>37.2094653343866</v>
       </c>
       <c r="D55" t="n">
-        <v>2.87370448141084</v>
+        <v>2.888090993875432</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.12434301066948</v>
+        <v>36.25213241830864</v>
       </c>
       <c r="D56" t="n">
-        <v>2.607259762483541</v>
+        <v>2.908250771595268</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.87590224989911</v>
+        <v>35.42213499573061</v>
       </c>
       <c r="D57" t="n">
-        <v>2.81302206278885</v>
+        <v>2.750639054623355</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.59664825731431</v>
+        <v>34.05759247934606</v>
       </c>
       <c r="D58" t="n">
-        <v>2.910816379508592</v>
+        <v>3.226524711068575</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.83346502008651</v>
+        <v>33.23266261074219</v>
       </c>
       <c r="D59" t="n">
-        <v>3.134275262882671</v>
+        <v>3.214989749968293</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.96690665672668</v>
+        <v>31.78060361616751</v>
       </c>
       <c r="D60" t="n">
-        <v>3.151508043499462</v>
+        <v>3.196865205965623</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.71249590187422</v>
+        <v>31.16878757355069</v>
       </c>
       <c r="D61" t="n">
-        <v>2.90919230790387</v>
+        <v>3.012895201310129</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.33569516677491</v>
+        <v>30.05245685269991</v>
       </c>
       <c r="D62" t="n">
-        <v>3.168902736577127</v>
+        <v>2.865507473761549</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.16136539675014</v>
+        <v>28.33895342865029</v>
       </c>
       <c r="D63" t="n">
-        <v>2.95405990093035</v>
+        <v>3.214145598345432</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.16634788508932</v>
+        <v>28.47880351884971</v>
       </c>
       <c r="D64" t="n">
-        <v>3.249847061645334</v>
+        <v>3.425523740589787</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.15630338920906</v>
+        <v>27.21926575332609</v>
       </c>
       <c r="D65" t="n">
-        <v>2.987224408654004</v>
+        <v>2.930573116629281</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.75593194279315</v>
+        <v>26.09494826376718</v>
       </c>
       <c r="D66" t="n">
-        <v>2.56901320891556</v>
+        <v>3.10752365663049</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.92336271801598</v>
+        <v>25.64499621720567</v>
       </c>
       <c r="D67" t="n">
-        <v>3.282597264468617</v>
+        <v>2.965804280794578</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.45866522320793</v>
+        <v>24.22427886519979</v>
       </c>
       <c r="D68" t="n">
-        <v>3.053027514492806</v>
+        <v>3.233735527662827</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.49396228193981</v>
+        <v>22.97590835742743</v>
       </c>
       <c r="D69" t="n">
-        <v>3.0051049299898</v>
+        <v>3.02313573002988</v>
       </c>
     </row>
   </sheetData>
